--- a/data/test/relevancy-test-78516.xlsx
+++ b/data/test/relevancy-test-78516.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>By themselves smallload or residential customers lack the power and resources to negotiate better deals banding together through aggregation programs local governments can wield purchasing clout on behalf of their residents for lower prices</t>
+          <t>As an example generally the typical electric cooperative in the United States has 7 customers per mile 7</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,17 +458,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The first provided an overview of the future of fuels and vehicles</t>
+          <t>OK Now those greenhouse gas emissions are not only CO2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>At what time did your company first become aware that the system was experiencing unscheduled unplanned or uncontrollable power flows or other abnormal conditions and what steps did you take to address the problem</t>
+          <t>I am a big trash energy guy</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
+          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,17 +488,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>So only the lobby and one exam room had electricity but they needed full electricity to meet the demands of their patients</t>
+          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,27 +508,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
+          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Economies are built on energy and materials</t>
+          <t>This one is from TXU Energy down in Texas</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,27 +538,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>It is helpful to have this update on electricity restructuring issues and I am pleased that transmission issues will be covered in a separate hearing because it is one of the most critical components of any restructuring plan</t>
+          <t>We have done that in a way that doesnt single out any fuel supply</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STATEMENT OF SUZANNE RUDZINSKI DIRECTOR OFFICE OF RESOURCE CONSERVATION AND RECOVERY OFFICE OF SOLID WASTE AND EMERGENCY RESPONSE ENVIRONMENTAL PROTECTION AGENCY Ms Rudzinski</t>
+          <t>Moreover there is no reason to believe that such activities have had or will have any practical impact on the pursuit of nuclear weapons by proliferating states on the comprehensive diplomatic efforts ongoing to address these threats or on the possible modernization of nuclear weapons by China or Russia</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>test for generation market power Since beginning to grant marketbased rates rate deregulation to public utilities in the 1980s the Commission primarily focused on the applicant and employed a hubandspoke analysis to determine whether an individual entity and its affiliates have generation market power</t>
+          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>These individuals in turn will become the qualified skilled workforce that the energy and manufacturing industries need</t>
+          <t>REGIONAL TRANSMISSION ORGANIZATIONS On July 12 2001 the Federal Energy Regulatory Commission issued a number of orders which advanced the concept of the formation of four large regional transmission organizations in addition to ERCOT in Texas to better facilitate the movement of electricity within the continental United States</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
+          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,17 +598,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+          <t>And then we have Mr Lou Pugliaresi who is the president of Energy Policy Research Foundation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,17 +618,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
+          <t>We would strongly suggest Mr Chairman that as we talk about these transactions both before the transaction takes place and during the period in which the transaction is being carried out that we have one agency that focus on meeting those responsibilities and that be the Federal Energy Regulatory Commission</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
+          <t>I am pleased that both the Securities and Exchange Commission the SEC and the Federal Energy Regulatory Commission FERC are investigating Enrons activities</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,17 +648,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
+          <t>It is time for Congress to provide an updated National Energy policy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,57 +668,57 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Good morning Chairman Upton Ranking Member Rush and all members of the Energy Subcommittee</t>
+          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>This further diminishes their bargaining power because it is now an emergency</t>
+          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>We have done that in a way that doesnt single out any fuel supply</t>
+          <t>And are you aware of the significant concerns because I know I have heard a lot about it with the pending regulations and their impact on the affordability of wood wood heating</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>They have no electricity</t>
+          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
+          <t>Some are reliably available 24 hours a day and seven days a week and ideal for baseload power while others are not</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,37 +728,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>When that merging occurs will we on the Energy and Commerce Committee be made aware of what that structure looks like and how the fund then subsequently is to be administered</t>
+          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Time of use metering is a similar application of technology which will better help electric customers understand when they use electricity the price consequences thereof and ways to save money</t>
+          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Energy prices soared and carbon pollution increased</t>
+          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,17 +768,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Question 3 How does the new supply margin market power test in the Commissions order of November 20 differ from the established hubandspoke test for market power</t>
+          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+          <t>This should not be styled to effectively mandate ethanol use however</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The Federal Power Act requires FERC to balance those competing interests in issuing a license because no one use of a river for power drinking water irrigation recreation or other use should automatically take precedence</t>
+          <t>But just kind of bottom line we know that for every fullservice hotel like a Marriott we send millions of dollars of buying power back into local communities through the salaries and supply chain</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,17 +808,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Diesel trucks are paying 450 a gallon for diesel</t>
+          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I think we need to increase conservation and weatherization</t>
+          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+          <t>These two projects represent the future of coal</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,27 +838,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
+          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nobody disagrees with the need for the additional power</t>
+          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+          <t>Privately shipped items are safely regulated and federally overseen by both the US Department of Transportation and the Nuclear Regulatory Commission NRC</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,27 +878,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Under the Federal Power Act the Federal Energy Regulatory Commission known as FERC oversees electricity markets and the physical and virtual products traded within them</t>
+          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>No market participant in interstate wholesale electric markets should be immune from FERCs investigative and remedial authority</t>
+          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+          <t>Was there any concern at all except for getting opinions of like you said previous counsel to the Department of Energy or outside counsel that you were making precedent here or breaking precedent</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Each day more exploration and development activity in the Gulf is lost</t>
+          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,37 +928,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Next to Ms Saunders is Mr Tim Richards who is the Managing Director of International Energy Policy for General Electric Company</t>
+          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>And then let me ask you when you talked about health and safety of the American folks in looking at the endangerment ruling I am wondering if you all looked at the fact because you mentioned something about the heat being higher causing folks to have strokes or heart attacks etc and I am wondering if you looked at the fact that with the electric rates going up the heating bills going up fuel oil going up that there are a lot of folks in my district who are having a hard time paying for their heat and what is the offset on the other side</t>
+          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>It took over a year in production and it analyzed all of the various means open to us in terms of investing in energy efficiency technologies</t>
+          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
+          <t>Mr Sokol your testimony says that the problems with Enron shouldnt stop us from doing electricity legislation because these problems are primarily about bad investments and misuse of accounting</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+          <t>We are also taking a comprehensive look at electricity market structure and recent developments and challenges for the way that we generate transmit and consume electricity in the nation with an eye toward updating the relevant laws governing our electricity sector</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
+          <t>COMMINGLING OF DIVERGENT COMPLIANT FUELS First Congress should adopt a legislative provision to permit the commingling of divergent compliant fuels</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,27 +1018,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
+          <t>Second did the Department of Energy sufficiently monitor the financial status of Solyndra after loan disbursements began particularly as the market forces seemed to be against them</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
+          <t>How do we construct the buildings of the future that meet the demands and growing population while conserving our limited resources</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
+          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>There were no septic systems no water systems and they ended up drilling their own wells and they become really a problem</t>
+          <t>It also provides for the issuance of orders to identify and mitigate vulnerabilities to protect the bulk power system from cyber attacks</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>US carbon trading is coming</t>
+          <t>But we are also concerned that this power grab will do irreparable harm to the FCC as an institution and to the role of Congress as elected representatives of the people to determine the law of the land</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,27 +1068,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>You say coal is not competitive</t>
+          <t>The electric power sector will continue to strive to meet those expectations through a multilayered strategy to invest in smart energy infrastructure continuous enhancement of our industryGovernment partnership and the grit of the amazing men and women who make the energy grid work dayin and dayout</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
+          <t>There are six principles which we believe are essential to this effort The Department and the National Nuclear Security Administration must ensure that its contractors establish robust effective and reliable business systems promote contractor governance models that adequately protect the Departments interests foster a culture where contractors fully understand and honor the very special responsibility associated with managing taxpayerfunded Federal facilities promote an environment where both Federal and contractor employee concerns can be raised and addressed without fear of retaliation develop quantifiable outcomeoriented metrics and maintain a system to track critical aspects of contractor performance and reward contractors commensurate with their accomplishments</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
+          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,17 +1108,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+          <t>Are you both familiar with the EPAs efforts and have you been invited at all to participate in their process of establishing a registry and if so could you elaborate on some of the suggestions that you have made to design a registry and recognizing of course that we already are doing emissions registry in the electrical sector</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+          <t>So this war on coal must stop</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+          <t>One of every eight people gets their electricity from a rural electric cooperative nationwide</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,27 +1138,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>That would be a market where large users of electricity can bid in to the market discontinuing using a certain amount of their load and get paid for it and make an economic decision as to whether they want to do that or not</t>
+          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
+          <t>A big driver for renewable energy development has been the willingness of States to forge ahead despite the absence of federal leadership</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
+          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+          <t>The electricity cost in 2020 under the LiebermanWarner Bill was 28 to 33 percent increase and in 2030 101 percent to 129 percent</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,17 +1188,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Given the potential impacts of EPAs proposed rules on the bulk power system such coordination is critical to ensuring that EPA does not enforce its rules in a vacuum</t>
+          <t>I am privileged to chair the Subcommittee on Commerce Trade and Consumer Protection and my friend and colleague Mr Boucher who is the chairman of the Communications Technology and Internet Subcommittee of the Committee on Energy and Commerce</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,17 +1208,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>There is an analysis that is going to be released in the coming weeks by the National Commission on Energy Policy</t>
+          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
+          <t>And either the oil itself or something in it is whats likely causing this outbreak</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,57 +1228,57 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+          <t>We need metals for our legacy energy businesses our carbonbased businesses oil gas coal whatever</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
+          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
+          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+          <t>That was in my energy business</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Although the accident ultimately caused two fatalities and the demolition of the area within the facility the most catastrophic consequence the release of almost 7 tons of MIC gas did not occur</t>
+          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The National Academy of Sciences has referred to the US electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous affordable and dependable manner</t>
+          <t>I hope this doesnt echo across the Administration and the great folks of the Department of Energy and the Congress</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,17 +1288,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+          <t>We depend on Polk to meet our customers energy needs</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,17 +1308,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+          <t>The partners are Southern Company subsidiary Georgia Power the Municipal Electric Authority of Georgia MEAG Power the Georgia Transmission Corporationa cooperative utilityand Dalton utilitiesa municipal system</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>I look forward to the testimony and to identifying what may be possible to do while preserving the essential roles of heavyduty engine power in our economy and way of life</t>
+          <t>While the blackout was a singular unprecedented event the fact remains that our national electric transmission system needs significant improvement and that we need to continue our efforts to enhance system reliability by expanding and improving the transmission system capabilities and interconnections</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
+          <t>The Clean Power Plan as proposed will call that into question</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Second the National Nuclear Security Administrations direct Federal oversight was narrowly focused on specific performance measures called out in the contract rather than on overall effectiveness and the interface between different areas and I will say more about this in a moment</t>
+          <t>Under the Federal Power Act the Federal Energy Regulatory Commission known as FERC oversees electricity markets and the physical and virtual products traded within them</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,27 +1348,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>So here is this switch that when it is in one position for an emissions test it made a change in how this was operational so the emissions would be lower</t>
+          <t>Yes it is in my opinion highly likely that any living thing that is exposed to high enough concentrations obviously if it is oil and dispersant mixtures are very likely to be poisoned</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>If we go out to the market to buy power from a new power plant it is at least 9 cents</t>
+          <t>It is one of those days as I said there is a hearing going on on the third floor and we have got about three hearings going in the Energy and Commerce Committee</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,17 +1398,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The United States has such incredible energy abundance</t>
+          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,30 +1418,1030 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>They have plenty of power already and influence as they demonstrated by instructing the Republican caucus to go pass this tax bill</t>
+          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+          <t>By way of background the Electricity Consumers Resource Council ELCON and the Electric Power Supply Association EPSA were part of the process that developed and endorsed the original consensus reliability language roughly seven years ago</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>We can all agree that we do need some oil and gas development</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The Department of Homeland Security will be responsible for preventing an attack on the United States by a terrorist with a nuclear weapon of mass destruction WMD</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>As a general matter it is obvious and beyond reasoned argument that a Director of a federal agency has the official capacity and authority to exercise governmental power or influence which could have a favorable or unfavorable impact on the interests of a grantee of that agency particularly an entity with a continuous grantee and certification relationship with that federal agency</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Public power also sells any excess power when available in the wholesale market</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>You say coal is not competitive</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>My personal opinion based on what happened about that history as well as what happened with privatized spent fuel storage was that you could have a willing host community</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Question 3 How does the new supply margin market power test in the Commissions order of November 20 differ from the established hubandspoke test for market power</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>I remember this from a former colleague who was a Democratic insurance commissioner and saying that one of the problems that they ran into is they are running into things like when you have overseas employees and you provide them medical care if you want to send somebody to be an oil worker in Nigeria or something you know you are not only going to have to pay them well but you are going to have to make surethey are going to be worried about well hey you are sending me off to work on an oil platform in some Third World country what happens if something happens to me medically</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>This initiative requires relatively modest federal investment in nuclear energy research and development</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6 Were there violations of the existing reliability rules for the realtime operation of the interconnected power systems</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>As a person who has actually developed interregional transmission projects I have taken the opportunity to write an article that is part of my prepared testimony that was just published in The Electricity Journal called Triple Jeopardy</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>We are occasionally reminded as we were on August 14th just how significant the loss of electricity can be to our economy and to our daily lives</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>It is helpful to have this update on electricity restructuring issues and I am pleased that transmission issues will be covered in a separate hearing because it is one of the most critical components of any restructuring plan</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>The prepared statement of Glenn English follows Glenn English Chief Executive Officer National Rural Electric Cooperative Association INTRODUCTION Chairman Barton and Members of the Subcommittee I appreciate this opportunity to continue our dialogue on the restructuring of the electric utility industry</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>It is complete power</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>And the second is that Congress has power to substantially correct it if it so chooses</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>In addition to being President and CEO of CONSOL Energy I want to tell you a little bit about Mr Harvey</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>And I am a strong advocate again for allowing patients to learn how to take care of their own asthma and manage their disease because it is really all about putting the power in the hands of the patient and teaching them what they need</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mr Robo you mentioned that you are managing the largest solar bank in the world is that right</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>test for generation market power Since beginning to grant marketbased rates rate deregulation to public utilities in the 1980s the Commission primarily focused on the applicant and employed a hubandspoke analysis to determine whether an individual entity and its affiliates have generation market power</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>We had better find a way to use coal in a clean manner</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Considering the nations maximized operational capacity increased reliance on imported oil and strained refining infrastructure any complicating factors in the gasoline distribution chain refining outages or multiple smallmarket fuel formulations can easily impact overall supply and consumer costs</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Electricity generation demand is largely a function of weather heat in the west and cold in the east</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>But having more and more acres burn without addressing the underlying causes will only make our air quality and greenhouse gas pollution issues that much worse</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>And then let me ask you when you talked about health and safety of the American folks in looking at the endangerment ruling I am wondering if you all looked at the fact because you mentioned something about the heat being higher causing folks to have strokes or heart attacks etc and I am wondering if you looked at the fact that with the electric rates going up the heating bills going up fuel oil going up that there are a lot of folks in my district who are having a hard time paying for their heat and what is the offset on the other side</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>We cannot simply solve this crisis without focusing increasing our energy efficiency</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>This outbreak prompted Congress to act with the Energy and Commerce Committee taking the lead in the House through a series of investigations and hearings on the issue</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Do we have any planes that can fly on electricity plugin hybrid technology</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Given the potential impacts of EPAs proposed rules on the bulk power system such coordination is critical to ensuring that EPA does not enforce its rules in a vacuum</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>In short we cannot afford to have this kind of failure on our electric system happen again</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Muir is concerned only about carbon</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>This blackout did not arise from a lack of electric generation supply</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>These include modernizing the electric grid by using proven technologies to better contain outages reduce recovery times and lower operating costs</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>They were the recipient of a promise by the Federal Government and the Department of Energy</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>We have separately established methodology for coal ash users to analyze their products and we have in fact applied that methodology to demonstrate that in concrete and wallboardthat we have confirmed its continued use</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>As a sector we use 40 quads of energy and this has basically not changed in 40 years</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Should this final FIP result in closure of the San Juan plant and mine hundreds of jobs will be lost not only in the coal and power industry on the Nation but in the service support industry and public sector as well</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>They have no electricity</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/test/relevancy-test-78516.xlsx
+++ b/data/test/relevancy-test-78516.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
